--- a/2ОИБАС1222/2ОИБАС1222_УП.xlsx
+++ b/2ОИБАС1222/2ОИБАС1222_УП.xlsx
@@ -498,7 +498,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,9 @@
         <v>18</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
@@ -1006,7 +1008,9 @@
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
       <c r="E26" s="2">
         <v>5</v>
       </c>
@@ -1068,7 +1072,9 @@
         <v>25</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>

--- a/2ОИБАС1222/2ОИБАС1222_УП.xlsx
+++ b/2ОИБАС1222/2ОИБАС1222_УП.xlsx
@@ -495,10 +495,10 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -659,9 +661,15 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -679,17 +687,27 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -764,11 +782,15 @@
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -883,13 +905,27 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -949,10 +985,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -967,12 +1007,20 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1015,9 +1063,15 @@
         <v>5</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1036,7 +1090,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1079,9 +1135,15 @@
         <v>5</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
